--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_29.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1658180.625159104</v>
+        <v>1654333.474013047</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2287978.008424927</v>
+        <v>2331819.878800778</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791248</v>
+        <v>419463.0933791242</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9269556.234603783</v>
+        <v>9266439.45572257</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>35.31892045815292</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>327.6443789344892</v>
       </c>
     </row>
     <row r="3">
@@ -783,22 +783,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>207.9625118881446</v>
+        <v>175.7052949439307</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
-        <v>153.8419088611721</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
         <v>187.4140068734885</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,16 +829,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>102.2524769558422</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>52.23054496834318</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>21.3752302381083</v>
       </c>
       <c r="F5" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>197.4841693526436</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>92.76882558113763</v>
+        <v>13.62409786082583</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,13 +1069,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>1.836713037499138</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>217.454027322091</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>151.8214473469189</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
@@ -1193,13 +1193,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>320.8338678700867</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>108.1045920014104</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>116.876383545772</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>316.3284710893554</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>309.0824193171712</v>
+        <v>312.8708093784477</v>
       </c>
       <c r="D11" t="n">
-        <v>301.4253903305715</v>
+        <v>305.213780391848</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>322.1847525309699</v>
       </c>
       <c r="F11" t="n">
-        <v>332.5641669203945</v>
+        <v>226.0555249357547</v>
       </c>
       <c r="G11" t="n">
-        <v>152.8109450403759</v>
+        <v>332.6581908532258</v>
       </c>
       <c r="H11" t="n">
-        <v>240.6808927642468</v>
+        <v>244.4692828255233</v>
       </c>
       <c r="I11" t="n">
-        <v>56.79241857353237</v>
+        <v>60.58080863480885</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.6870923434325</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>141.1042692512501</v>
+        <v>144.8926593125265</v>
       </c>
       <c r="U11" t="n">
-        <v>173.0338751048199</v>
+        <v>176.8222651660964</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>262.3128040998658</v>
       </c>
       <c r="W11" t="n">
-        <v>287.127717516468</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>305.3967518513463</v>
+        <v>309.1851419126227</v>
       </c>
       <c r="Y11" t="n">
-        <v>312.3644748236774</v>
+        <v>316.1528648849539</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>103.1946113394608</v>
+        <v>106.9830014007373</v>
       </c>
       <c r="C13" t="n">
-        <v>88.34173958974323</v>
+        <v>92.1301296510197</v>
       </c>
       <c r="D13" t="n">
-        <v>73.91545480158295</v>
+        <v>77.70384486285943</v>
       </c>
       <c r="E13" t="n">
-        <v>73.84189685446206</v>
+        <v>77.63028691573854</v>
       </c>
       <c r="F13" t="n">
-        <v>75.59134827422933</v>
+        <v>79.37973833550581</v>
       </c>
       <c r="G13" t="n">
-        <v>86.41018619662147</v>
+        <v>90.19857625789794</v>
       </c>
       <c r="H13" t="n">
-        <v>16.25021819377973</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>51.60215394436544</v>
+        <v>55.39054400564191</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>42.50065230882136</v>
+        <v>34.43106582049859</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>153.2005341485208</v>
+        <v>156.9889242097972</v>
       </c>
       <c r="U13" t="n">
-        <v>202.4230766755906</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>183.1582245624566</v>
+        <v>186.946614623733</v>
       </c>
       <c r="W13" t="n">
-        <v>200.3357708832067</v>
+        <v>204.1241609444832</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>155.3665818911958</v>
       </c>
       <c r="Y13" t="n">
-        <v>140.7196134065956</v>
+        <v>144.5080034678721</v>
       </c>
     </row>
     <row r="14">
@@ -1604,19 +1604,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C14" t="n">
-        <v>295.2524720077823</v>
+        <v>243.4552529902948</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>287.5954430211825</v>
       </c>
       <c r="E14" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F14" t="n">
-        <v>318.7342196110056</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G14" t="n">
         <v>315.0398534825604</v>
@@ -1625,7 +1625,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414339</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.85714503404351</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U14" t="n">
-        <v>28.5432701394528</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>244.6944667292004</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W14" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X14" t="n">
-        <v>291.5668045419573</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.36466403007184</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C16" t="n">
-        <v>74.51179228035424</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D16" t="n">
-        <v>60.08550749219397</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E16" t="n">
-        <v>60.01194954507308</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F16" t="n">
-        <v>61.76140096484035</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G16" t="n">
-        <v>72.58023888723248</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H16" t="n">
-        <v>59.93249105380453</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I16" t="n">
-        <v>37.77220663497646</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67070499943237</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S16" t="n">
         <v>106.7966485049597</v>
@@ -1819,16 +1819,16 @@
         <v>139.3705868391318</v>
       </c>
       <c r="U16" t="n">
-        <v>188.5931293662017</v>
+        <v>188.5931293662016</v>
       </c>
       <c r="V16" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W16" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X16" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y16" t="n">
         <v>126.8896660972066</v>
@@ -1841,19 +1841,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665142</v>
       </c>
       <c r="D17" t="n">
         <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697375</v>
       </c>
       <c r="G17" t="n">
         <v>278.6711586412924</v>
@@ -1862,7 +1862,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875351</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277547</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059302</v>
       </c>
       <c r="U17" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879333</v>
       </c>
       <c r="W17" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658109</v>
       </c>
       <c r="X17" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880385</v>
+        <v>52.9959691888038</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908626</v>
+        <v>38.1430974390862</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092593</v>
       </c>
       <c r="E19" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380504</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357231</v>
       </c>
       <c r="G19" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596444</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253649</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708418</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,16 +2050,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369165</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978637</v>
       </c>
       <c r="U19" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117995</v>
       </c>
       <c r="W19" t="n">
         <v>150.1371287325497</v>
@@ -2068,7 +2068,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593866</v>
+        <v>90.5209712559386</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799664</v>
+        <v>280.9024625837192</v>
       </c>
       <c r="C26" t="n">
         <v>295.2524720077822</v>
       </c>
       <c r="D26" t="n">
-        <v>36.35378656168319</v>
+        <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F26" t="n">
         <v>318.7342196110055</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414335</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404347</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
       </c>
       <c r="U26" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007179</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C28" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380448</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497641</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -2804,10 +2804,10 @@
         <v>318.7342196110055</v>
       </c>
       <c r="G29" t="n">
-        <v>308.4926637522601</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H29" t="n">
-        <v>226.8509454548578</v>
+        <v>46.05095646317946</v>
       </c>
       <c r="I29" t="n">
         <v>42.96247126414336</v>
@@ -2849,7 +2849,7 @@
         <v>159.2039277954309</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W29" t="n">
         <v>273.2977702070789</v>
@@ -3041,13 +3041,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G32" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H32" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I32" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T32" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U32" t="n">
         <v>122.835232954163</v>
@@ -3089,10 +3089,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W32" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X32" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y32" t="n">
         <v>262.1658326730205</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C34" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D34" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E34" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F34" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G34" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H34" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I34" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T34" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U34" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V34" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W34" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X34" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y34" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E35" t="n">
         <v>268.1977203190365</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F37" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
@@ -3484,13 +3484,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="38">
@@ -3515,13 +3515,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G38" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H38" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3563,10 +3563,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X38" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y38" t="n">
         <v>262.1658326730205</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U40" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W40" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="41">
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C41" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E41" t="n">
         <v>268.1977203190365</v>
@@ -3755,10 +3755,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E43" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G43" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T43" t="n">
         <v>103.0018919978638</v>
@@ -3958,13 +3958,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>279.9597762480875</v>
+        <v>283.748166309364</v>
       </c>
       <c r="C44" t="n">
-        <v>272.7137244759032</v>
+        <v>276.5021145371798</v>
       </c>
       <c r="D44" t="n">
-        <v>265.0566954893035</v>
+        <v>268.8450855505801</v>
       </c>
       <c r="E44" t="n">
-        <v>282.0276676284254</v>
+        <v>21.54099712971907</v>
       </c>
       <c r="F44" t="n">
-        <v>296.1954720791265</v>
+        <v>299.9838621404031</v>
       </c>
       <c r="G44" t="n">
-        <v>292.5011059506814</v>
+        <v>296.289496011958</v>
       </c>
       <c r="H44" t="n">
-        <v>204.3121979229788</v>
+        <v>208.1005879842554</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>24.21211379354094</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>48.31839750216449</v>
+        <v>52.10678756344106</v>
       </c>
       <c r="T44" t="n">
-        <v>54.37526876496299</v>
+        <v>108.5239644712586</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>140.4535703248285</v>
       </c>
       <c r="V44" t="n">
-        <v>222.1557191973213</v>
+        <v>225.9441092585979</v>
       </c>
       <c r="W44" t="n">
-        <v>250.7590226752</v>
+        <v>254.5474127364765</v>
       </c>
       <c r="X44" t="n">
-        <v>269.0280570100783</v>
+        <v>272.8164470713548</v>
       </c>
       <c r="Y44" t="n">
-        <v>275.9957799824094</v>
+        <v>279.784170043686</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>66.82591649819281</v>
+        <v>70.61430655946938</v>
       </c>
       <c r="C46" t="n">
-        <v>51.97304474847522</v>
+        <v>55.76143480975179</v>
       </c>
       <c r="D46" t="n">
-        <v>37.54675996031494</v>
+        <v>41.33515002159152</v>
       </c>
       <c r="E46" t="n">
-        <v>37.47320201319405</v>
+        <v>41.26159207447063</v>
       </c>
       <c r="F46" t="n">
-        <v>39.22265343296132</v>
+        <v>43.0110434942379</v>
       </c>
       <c r="G46" t="n">
-        <v>50.04149135535346</v>
+        <v>53.82988141663003</v>
       </c>
       <c r="H46" t="n">
-        <v>37.3937435219255</v>
+        <v>41.18213358320207</v>
       </c>
       <c r="I46" t="n">
-        <v>15.23345910309743</v>
+        <v>19.021849164374</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>6.131957467553349</v>
+        <v>9.920347528829922</v>
       </c>
       <c r="S46" t="n">
-        <v>84.25790097308067</v>
+        <v>88.04629103435724</v>
       </c>
       <c r="T46" t="n">
-        <v>116.8318393072527</v>
+        <v>120.6202293685293</v>
       </c>
       <c r="U46" t="n">
-        <v>166.0543818343226</v>
+        <v>169.8427718955992</v>
       </c>
       <c r="V46" t="n">
-        <v>146.7895297211886</v>
+        <v>150.5779197824651</v>
       </c>
       <c r="W46" t="n">
-        <v>163.9670760419387</v>
+        <v>167.7554661032153</v>
       </c>
       <c r="X46" t="n">
-        <v>115.2094969886513</v>
+        <v>118.9978870499278</v>
       </c>
       <c r="Y46" t="n">
-        <v>104.3509185653276</v>
+        <v>108.1393086266042</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1195.386655742396</v>
+        <v>585.5489368074677</v>
       </c>
       <c r="C2" t="n">
-        <v>1195.386655742396</v>
+        <v>585.5489368074677</v>
       </c>
       <c r="D2" t="n">
-        <v>1195.386655742396</v>
+        <v>200.1078080241355</v>
       </c>
       <c r="E2" t="n">
-        <v>1195.386655742396</v>
+        <v>200.1078080241355</v>
       </c>
       <c r="F2" t="n">
-        <v>778.4922172723741</v>
+        <v>187.2537735945173</v>
       </c>
       <c r="G2" t="n">
-        <v>365.3294617603773</v>
+        <v>178.1314221229246</v>
       </c>
       <c r="H2" t="n">
-        <v>41.2464113268679</v>
+        <v>178.1314221229246</v>
       </c>
       <c r="I2" t="n">
-        <v>41.2464113268679</v>
+        <v>39.79430521538938</v>
       </c>
       <c r="J2" t="n">
-        <v>41.2464113268679</v>
+        <v>39.79430521538938</v>
       </c>
       <c r="K2" t="n">
-        <v>400.2287673543298</v>
+        <v>398.7766612428512</v>
       </c>
       <c r="L2" t="n">
-        <v>763.6691331495545</v>
+        <v>891.2311882832948</v>
       </c>
       <c r="M2" t="n">
-        <v>1274.093473319545</v>
+        <v>891.2311882832948</v>
       </c>
       <c r="N2" t="n">
-        <v>1274.093473319545</v>
+        <v>1383.685715323738</v>
       </c>
       <c r="O2" t="n">
-        <v>1714.133074211873</v>
+        <v>1823.725316216067</v>
       </c>
       <c r="P2" t="n">
-        <v>2062.320566343395</v>
+        <v>1989.715260769469</v>
       </c>
       <c r="Q2" t="n">
-        <v>2062.320566343395</v>
+        <v>1989.715260769469</v>
       </c>
       <c r="R2" t="n">
-        <v>2024.327652628917</v>
+        <v>1951.722347054991</v>
       </c>
       <c r="S2" t="n">
-        <v>1857.814097569968</v>
+        <v>1785.208791996042</v>
       </c>
       <c r="T2" t="n">
-        <v>1857.814097569968</v>
+        <v>1561.708189555458</v>
       </c>
       <c r="U2" t="n">
-        <v>1602.061368004566</v>
+        <v>1305.955459990057</v>
       </c>
       <c r="V2" t="n">
-        <v>1602.061368004566</v>
+        <v>1305.955459990057</v>
       </c>
       <c r="W2" t="n">
-        <v>1231.062332972854</v>
+        <v>1305.955459990057</v>
       </c>
       <c r="X2" t="n">
-        <v>1195.386655742396</v>
+        <v>916.5028549231134</v>
       </c>
       <c r="Y2" t="n">
-        <v>1195.386655742396</v>
+        <v>585.5489368074677</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>840.6123944668989</v>
+        <v>839.1602883554203</v>
       </c>
       <c r="C3" t="n">
-        <v>689.9581640269911</v>
+        <v>688.5060579155125</v>
       </c>
       <c r="D3" t="n">
-        <v>559.8691966484714</v>
+        <v>558.4170905369929</v>
       </c>
       <c r="E3" t="n">
-        <v>423.4227057593591</v>
+        <v>421.9705996478806</v>
       </c>
       <c r="F3" t="n">
-        <v>298.9908996424909</v>
+        <v>297.5387935310124</v>
       </c>
       <c r="G3" t="n">
-        <v>178.9310817143554</v>
+        <v>177.4789756028769</v>
       </c>
       <c r="H3" t="n">
-        <v>90.63366531495632</v>
+        <v>89.18155920347779</v>
       </c>
       <c r="I3" t="n">
-        <v>41.2464113268679</v>
+        <v>39.79430521538938</v>
       </c>
       <c r="J3" t="n">
-        <v>154.3613935465953</v>
+        <v>152.9092874351168</v>
       </c>
       <c r="K3" t="n">
-        <v>474.1005396088217</v>
+        <v>472.6484334973432</v>
       </c>
       <c r="L3" t="n">
-        <v>957.666625507135</v>
+        <v>956.2145193956565</v>
       </c>
       <c r="M3" t="n">
-        <v>1468.090965677125</v>
+        <v>956.2145193956565</v>
       </c>
       <c r="N3" t="n">
-        <v>1656.699197626998</v>
+        <v>1349.728800498181</v>
       </c>
       <c r="O3" t="n">
-        <v>1656.699197626998</v>
+        <v>1349.728800498181</v>
       </c>
       <c r="P3" t="n">
-        <v>2062.320566343395</v>
+        <v>1755.350169214579</v>
       </c>
       <c r="Q3" t="n">
-        <v>2062.320566343395</v>
+        <v>1989.715260769469</v>
       </c>
       <c r="R3" t="n">
-        <v>2038.40352324146</v>
+        <v>1989.715260769469</v>
       </c>
       <c r="S3" t="n">
-        <v>1903.472846141329</v>
+        <v>1989.715260769469</v>
       </c>
       <c r="T3" t="n">
-        <v>1726.489034340237</v>
+        <v>1989.715260769469</v>
       </c>
       <c r="U3" t="n">
-        <v>1516.425891018879</v>
+        <v>1812.235164866509</v>
       </c>
       <c r="V3" t="n">
-        <v>1516.425891018879</v>
+        <v>1589.695163237576</v>
       </c>
       <c r="W3" t="n">
-        <v>1361.030023482341</v>
+        <v>1359.577917370863</v>
       </c>
       <c r="X3" t="n">
-        <v>1171.722945832353</v>
+        <v>1170.270839720874</v>
       </c>
       <c r="Y3" t="n">
-        <v>992.4087289078602</v>
+        <v>990.9566227963817</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>368.7774640479057</v>
+        <v>632.1323196982175</v>
       </c>
       <c r="C4" t="n">
-        <v>198.572346113895</v>
+        <v>632.1323196982175</v>
       </c>
       <c r="D4" t="n">
-        <v>198.572346113895</v>
+        <v>632.1323196982175</v>
       </c>
       <c r="E4" t="n">
-        <v>198.572346113895</v>
+        <v>632.1323196982175</v>
       </c>
       <c r="F4" t="n">
-        <v>41.2464113268679</v>
+        <v>474.8063849111905</v>
       </c>
       <c r="G4" t="n">
-        <v>41.2464113268679</v>
+        <v>306.5523310106361</v>
       </c>
       <c r="H4" t="n">
-        <v>41.2464113268679</v>
+        <v>203.2670007522096</v>
       </c>
       <c r="I4" t="n">
-        <v>41.2464113268679</v>
+        <v>70.17257538928743</v>
       </c>
       <c r="J4" t="n">
-        <v>41.2464113268679</v>
+        <v>39.79430521538938</v>
       </c>
       <c r="K4" t="n">
-        <v>123.0814524368098</v>
+        <v>121.6293463253313</v>
       </c>
       <c r="L4" t="n">
-        <v>287.2090923106095</v>
+        <v>285.756986199131</v>
       </c>
       <c r="M4" t="n">
-        <v>473.5006706488736</v>
+        <v>472.048564537395</v>
       </c>
       <c r="N4" t="n">
-        <v>656.6903046800828</v>
+        <v>655.2381985686043</v>
       </c>
       <c r="O4" t="n">
-        <v>819.3950717217908</v>
+        <v>817.9429656103123</v>
       </c>
       <c r="P4" t="n">
-        <v>939.2712374983694</v>
+        <v>937.8191313868908</v>
       </c>
       <c r="Q4" t="n">
-        <v>942.6934338684204</v>
+        <v>941.2413277569418</v>
       </c>
       <c r="R4" t="n">
-        <v>942.6934338684204</v>
+        <v>817.3403383895188</v>
       </c>
       <c r="S4" t="n">
-        <v>942.6934338684204</v>
+        <v>817.3403383895188</v>
       </c>
       <c r="T4" t="n">
-        <v>706.9743820366544</v>
+        <v>817.3403383895188</v>
       </c>
       <c r="U4" t="n">
-        <v>421.5355902785554</v>
+        <v>817.3403383895188</v>
       </c>
       <c r="V4" t="n">
-        <v>368.7774640479057</v>
+        <v>817.3403383895188</v>
       </c>
       <c r="W4" t="n">
-        <v>368.7774640479057</v>
+        <v>817.3403383895188</v>
       </c>
       <c r="X4" t="n">
-        <v>368.7774640479057</v>
+        <v>817.3403383895188</v>
       </c>
       <c r="Y4" t="n">
-        <v>368.7774640479057</v>
+        <v>817.3403383895188</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1838.819963902812</v>
+        <v>1353.862808193108</v>
       </c>
       <c r="C5" t="n">
-        <v>1445.644462405742</v>
+        <v>1353.862808193108</v>
       </c>
       <c r="D5" t="n">
-        <v>1060.20333362241</v>
+        <v>1353.862808193108</v>
       </c>
       <c r="E5" t="n">
-        <v>657.6198087389544</v>
+        <v>1332.271666538453</v>
       </c>
       <c r="F5" t="n">
-        <v>240.7253702689321</v>
+        <v>915.3772280684308</v>
       </c>
       <c r="G5" t="n">
-        <v>41.2464113268679</v>
+        <v>502.2144725564339</v>
       </c>
       <c r="H5" t="n">
-        <v>41.2464113268679</v>
+        <v>178.1314221229246</v>
       </c>
       <c r="I5" t="n">
-        <v>41.2464113268679</v>
+        <v>39.79430521538938</v>
       </c>
       <c r="J5" t="n">
-        <v>185.896184235696</v>
+        <v>39.79430521538938</v>
       </c>
       <c r="K5" t="n">
-        <v>544.8785402631579</v>
+        <v>39.79430521538938</v>
       </c>
       <c r="L5" t="n">
-        <v>1038.198831981687</v>
+        <v>532.2488322558329</v>
       </c>
       <c r="M5" t="n">
-        <v>1548.623172151677</v>
+        <v>709.0336407051752</v>
       </c>
       <c r="N5" t="n">
-        <v>2059.047512321667</v>
+        <v>1201.488167745619</v>
       </c>
       <c r="O5" t="n">
-        <v>2062.320566343395</v>
+        <v>1641.527768637947</v>
       </c>
       <c r="P5" t="n">
-        <v>2062.320566343395</v>
+        <v>1989.715260769469</v>
       </c>
       <c r="Q5" t="n">
-        <v>2062.320566343395</v>
+        <v>1989.715260769469</v>
       </c>
       <c r="R5" t="n">
-        <v>2062.320566343395</v>
+        <v>1951.722347054991</v>
       </c>
       <c r="S5" t="n">
-        <v>2062.320566343395</v>
+        <v>1951.722347054991</v>
       </c>
       <c r="T5" t="n">
-        <v>1838.819963902812</v>
+        <v>1951.722347054991</v>
       </c>
       <c r="U5" t="n">
-        <v>1838.819963902812</v>
+        <v>1695.969617489589</v>
       </c>
       <c r="V5" t="n">
-        <v>1838.819963902812</v>
+        <v>1353.862808193108</v>
       </c>
       <c r="W5" t="n">
-        <v>1838.819963902812</v>
+        <v>1353.862808193108</v>
       </c>
       <c r="X5" t="n">
-        <v>1838.819963902812</v>
+        <v>1353.862808193108</v>
       </c>
       <c r="Y5" t="n">
-        <v>1838.819963902812</v>
+        <v>1353.862808193108</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>543.3510145077903</v>
+        <v>470.7457089338643</v>
       </c>
       <c r="C6" t="n">
-        <v>392.6967840678825</v>
+        <v>320.0914784939565</v>
       </c>
       <c r="D6" t="n">
-        <v>392.6967840678825</v>
+        <v>190.0025111154368</v>
       </c>
       <c r="E6" t="n">
-        <v>392.6967840678825</v>
+        <v>53.55602022632456</v>
       </c>
       <c r="F6" t="n">
-        <v>298.9908996424909</v>
+        <v>39.79430521538938</v>
       </c>
       <c r="G6" t="n">
-        <v>178.9310817143554</v>
+        <v>39.79430521538938</v>
       </c>
       <c r="H6" t="n">
-        <v>90.63366531495632</v>
+        <v>39.79430521538938</v>
       </c>
       <c r="I6" t="n">
-        <v>41.2464113268679</v>
+        <v>39.79430521538938</v>
       </c>
       <c r="J6" t="n">
-        <v>41.2464113268679</v>
+        <v>152.9092874351168</v>
       </c>
       <c r="K6" t="n">
-        <v>41.2464113268679</v>
+        <v>472.6484334973432</v>
       </c>
       <c r="L6" t="n">
-        <v>41.2464113268679</v>
+        <v>956.2145193956565</v>
       </c>
       <c r="M6" t="n">
-        <v>551.6707514968582</v>
+        <v>1349.728800498181</v>
       </c>
       <c r="N6" t="n">
-        <v>1062.095091666848</v>
+        <v>1349.728800498181</v>
       </c>
       <c r="O6" t="n">
-        <v>1572.519431836839</v>
+        <v>1349.728800498181</v>
       </c>
       <c r="P6" t="n">
-        <v>1978.140800553236</v>
+        <v>1755.350169214579</v>
       </c>
       <c r="Q6" t="n">
-        <v>2062.320566343395</v>
+        <v>1989.715260769469</v>
       </c>
       <c r="R6" t="n">
-        <v>2038.40352324146</v>
+        <v>1965.798217667534</v>
       </c>
       <c r="S6" t="n">
-        <v>1903.472846141329</v>
+        <v>1830.867540567403</v>
       </c>
       <c r="T6" t="n">
-        <v>1726.489034340237</v>
+        <v>1653.883728766311</v>
       </c>
       <c r="U6" t="n">
-        <v>1516.425891018879</v>
+        <v>1443.820585444953</v>
       </c>
       <c r="V6" t="n">
-        <v>1293.885889389946</v>
+        <v>1221.28058381602</v>
       </c>
       <c r="W6" t="n">
-        <v>1063.768643523233</v>
+        <v>991.1633379493067</v>
       </c>
       <c r="X6" t="n">
-        <v>874.4615658732444</v>
+        <v>801.8562602993184</v>
       </c>
       <c r="Y6" t="n">
-        <v>695.1473489487516</v>
+        <v>622.5420433748257</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>655.3993764158777</v>
+        <v>721.590795108365</v>
       </c>
       <c r="C7" t="n">
-        <v>655.3993764158777</v>
+        <v>551.3856771743542</v>
       </c>
       <c r="D7" t="n">
-        <v>655.3993764158777</v>
+        <v>395.7525640768689</v>
       </c>
       <c r="E7" t="n">
-        <v>655.3993764158777</v>
+        <v>395.7525640768689</v>
       </c>
       <c r="F7" t="n">
-        <v>498.0734416288506</v>
+        <v>238.4266292898419</v>
       </c>
       <c r="G7" t="n">
-        <v>329.8193877282961</v>
+        <v>70.17257538928743</v>
       </c>
       <c r="H7" t="n">
-        <v>174.34083668979</v>
+        <v>70.17257538928743</v>
       </c>
       <c r="I7" t="n">
-        <v>41.2464113268679</v>
+        <v>70.17257538928743</v>
       </c>
       <c r="J7" t="n">
-        <v>41.2464113268679</v>
+        <v>39.79430521538938</v>
       </c>
       <c r="K7" t="n">
-        <v>123.0814524368098</v>
+        <v>121.6293463253313</v>
       </c>
       <c r="L7" t="n">
-        <v>287.2090923106095</v>
+        <v>285.756986199131</v>
       </c>
       <c r="M7" t="n">
-        <v>473.5006706488736</v>
+        <v>472.048564537395</v>
       </c>
       <c r="N7" t="n">
-        <v>656.6903046800828</v>
+        <v>655.2381985686043</v>
       </c>
       <c r="O7" t="n">
-        <v>819.3950717217908</v>
+        <v>817.9429656103123</v>
       </c>
       <c r="P7" t="n">
-        <v>939.2712374983694</v>
+        <v>937.8191313868908</v>
       </c>
       <c r="Q7" t="n">
-        <v>942.6934338684204</v>
+        <v>941.2413277569418</v>
       </c>
       <c r="R7" t="n">
-        <v>942.6934338684204</v>
+        <v>941.2413277569418</v>
       </c>
       <c r="S7" t="n">
-        <v>940.8381681739768</v>
+        <v>941.2413277569418</v>
       </c>
       <c r="T7" t="n">
-        <v>940.8381681739768</v>
+        <v>941.2413277569418</v>
       </c>
       <c r="U7" t="n">
-        <v>655.3993764158777</v>
+        <v>941.2413277569418</v>
       </c>
       <c r="V7" t="n">
-        <v>655.3993764158777</v>
+        <v>941.2413277569418</v>
       </c>
       <c r="W7" t="n">
-        <v>655.3993764158777</v>
+        <v>941.2413277569418</v>
       </c>
       <c r="X7" t="n">
-        <v>655.3993764158777</v>
+        <v>721.590795108365</v>
       </c>
       <c r="Y7" t="n">
-        <v>655.3993764158777</v>
+        <v>721.590795108365</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>209.7903188932565</v>
+        <v>1015.707280991098</v>
       </c>
       <c r="C8" t="n">
-        <v>209.7903188932565</v>
+        <v>1015.707280991098</v>
       </c>
       <c r="D8" t="n">
-        <v>209.7903188932565</v>
+        <v>1015.707280991098</v>
       </c>
       <c r="E8" t="n">
-        <v>209.7903188932565</v>
+        <v>1015.707280991098</v>
       </c>
       <c r="F8" t="n">
-        <v>56.43532157313638</v>
+        <v>598.8128425210757</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>1445.616517892115</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N8" t="n">
-        <v>1973.427801529577</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O8" t="n">
         <v>2365.64850507718</v>
@@ -4826,28 +4826,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2199.134950018231</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>1975.634347577648</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>1719.881618012246</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V8" t="n">
-        <v>1377.774808715765</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="W8" t="n">
-        <v>1006.775773684052</v>
+        <v>1015.707280991098</v>
       </c>
       <c r="X8" t="n">
-        <v>1006.775773684052</v>
+        <v>1015.707280991098</v>
       </c>
       <c r="Y8" t="n">
-        <v>610.2850646046534</v>
+        <v>1015.707280991098</v>
       </c>
     </row>
     <row r="9">
@@ -4881,16 +4881,16 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154367</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>530.879055999857</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>1029.265125924707</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N9" t="n">
         <v>1614.763130931309</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>839.5634350659138</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>683.9303219684286</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>528.3715098276311</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>371.0455750406041</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>202.7915211400496</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
         <v>47.31297010154361</v>
@@ -4993,19 +4993,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>830.7030395665587</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>564.7236943873829</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>281.3932923185605</v>
       </c>
       <c r="X10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1469.549666033704</v>
+        <v>1884.374834320863</v>
       </c>
       <c r="C11" t="n">
-        <v>1157.345202076965</v>
+        <v>1568.343713736572</v>
       </c>
       <c r="D11" t="n">
-        <v>852.8751108339638</v>
+        <v>1260.046965866018</v>
       </c>
       <c r="E11" t="n">
-        <v>852.8751108339638</v>
+        <v>934.6078218953412</v>
       </c>
       <c r="F11" t="n">
-        <v>516.9517099042725</v>
+        <v>706.2689078188208</v>
       </c>
       <c r="G11" t="n">
-        <v>362.5972199644985</v>
+        <v>370.2505332196027</v>
       </c>
       <c r="H11" t="n">
-        <v>119.4852070713199</v>
+        <v>123.3118636988721</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411549</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129418</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404037</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L11" t="n">
-        <v>1059.071548358932</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M11" t="n">
-        <v>1605.072448403513</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N11" t="n">
-        <v>2132.883732040975</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O11" t="n">
-        <v>2572.923332933304</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P11" t="n">
-        <v>2921.110825064826</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q11" t="n">
-        <v>3105.956385205774</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R11" t="n">
-        <v>3105.956385205774</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3020.413867687156</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>2877.884302786903</v>
+        <v>2959.600163677972</v>
       </c>
       <c r="U11" t="n">
-        <v>2703.102610761833</v>
+        <v>2780.991815025349</v>
       </c>
       <c r="V11" t="n">
-        <v>2703.102610761833</v>
+        <v>2516.029386641647</v>
       </c>
       <c r="W11" t="n">
-        <v>2413.074613270451</v>
+        <v>2516.029386641647</v>
       </c>
       <c r="X11" t="n">
-        <v>2104.593045743838</v>
+        <v>2203.721162487483</v>
       </c>
       <c r="Y11" t="n">
-        <v>1789.07337420477</v>
+        <v>1884.374834320863</v>
       </c>
     </row>
     <row r="12">
@@ -5103,10 +5103,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E12" t="n">
-        <v>444.2954221366067</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F12" t="n">
-        <v>319.8636160197385</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G12" t="n">
         <v>199.803798091603</v>
@@ -5115,28 +5115,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I12" t="n">
-        <v>62.11912770411549</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411549</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>381.8582737663419</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>865.4243596646552</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M12" t="n">
-        <v>865.4243596646552</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>532.7787214968271</v>
+        <v>539.3242994502402</v>
       </c>
       <c r="C13" t="n">
-        <v>443.5446411031471</v>
+        <v>446.2635624290082</v>
       </c>
       <c r="D13" t="n">
-        <v>368.8825655459926</v>
+        <v>367.7748302443017</v>
       </c>
       <c r="E13" t="n">
-        <v>294.2947909455258</v>
+        <v>289.3603990162829</v>
       </c>
       <c r="F13" t="n">
-        <v>217.9398936988294</v>
+        <v>209.1788451420346</v>
       </c>
       <c r="G13" t="n">
-        <v>130.6568773386056</v>
+        <v>118.0691721542589</v>
       </c>
       <c r="H13" t="n">
-        <v>114.2425155267069</v>
+        <v>118.0691721542589</v>
       </c>
       <c r="I13" t="n">
-        <v>62.11912770411549</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>111.7050989999562</v>
+        <v>107.9545928392925</v>
       </c>
       <c r="K13" t="n">
-        <v>272.899854003176</v>
+        <v>265.3988416818489</v>
       </c>
       <c r="L13" t="n">
-        <v>516.387207770254</v>
+        <v>505.1356892882631</v>
       </c>
       <c r="M13" t="n">
-        <v>782.0385000017961</v>
+        <v>767.0364753591416</v>
       </c>
       <c r="N13" t="n">
-        <v>1044.587847926284</v>
+        <v>1025.835317122965</v>
       </c>
       <c r="O13" t="n">
-        <v>1286.65232886127</v>
+        <v>1264.149291897288</v>
       </c>
       <c r="P13" t="n">
-        <v>1485.888208531127</v>
+        <v>1459.634665406481</v>
       </c>
       <c r="Q13" t="n">
-        <v>1568.670118794456</v>
+        <v>1538.666069509146</v>
       </c>
       <c r="R13" t="n">
-        <v>1525.740166967363</v>
+        <v>1503.887215145006</v>
       </c>
       <c r="S13" t="n">
-        <v>1525.740166967363</v>
+        <v>1503.887215145006</v>
       </c>
       <c r="T13" t="n">
-        <v>1370.992152675928</v>
+        <v>1345.312544226019</v>
       </c>
       <c r="U13" t="n">
-        <v>1166.52439845816</v>
+        <v>1345.312544226019</v>
       </c>
       <c r="V13" t="n">
-        <v>981.5160908193151</v>
+        <v>1156.477579959622</v>
       </c>
       <c r="W13" t="n">
-        <v>779.1567262908235</v>
+        <v>950.2915588035785</v>
       </c>
       <c r="X13" t="n">
-        <v>779.1567262908235</v>
+        <v>793.3556174993405</v>
       </c>
       <c r="Y13" t="n">
-        <v>637.0157026477976</v>
+        <v>647.3879372287627</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1580.711427684574</v>
+        <v>1775.495016310384</v>
       </c>
       <c r="C14" t="n">
-        <v>1282.476607474693</v>
+        <v>1529.58061935049</v>
       </c>
       <c r="D14" t="n">
-        <v>1282.476607474693</v>
+        <v>1239.080171854346</v>
       </c>
       <c r="E14" t="n">
-        <v>974.8337638784258</v>
+        <v>931.4373282580789</v>
       </c>
       <c r="F14" t="n">
-        <v>652.8800066955919</v>
+        <v>609.483571075245</v>
       </c>
       <c r="G14" t="n">
-        <v>334.6579324707834</v>
+        <v>291.2614968504365</v>
       </c>
       <c r="H14" t="n">
-        <v>105.5155633244623</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411549</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
         <v>206.7689006129436</v>
@@ -5291,37 +5291,37 @@
         <v>2132.883732040977</v>
       </c>
       <c r="O14" t="n">
-        <v>2572.923332933304</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P14" t="n">
-        <v>2921.110825064826</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q14" t="n">
-        <v>3105.956385205774</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R14" t="n">
-        <v>3105.956385205774</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3034.383511434013</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T14" t="n">
-        <v>3034.383511434013</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U14" t="n">
-        <v>3005.551925434566</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="V14" t="n">
-        <v>2758.385797425272</v>
+        <v>2658.657462271327</v>
       </c>
       <c r="W14" t="n">
-        <v>2482.327443680748</v>
+        <v>2382.599108526803</v>
       </c>
       <c r="X14" t="n">
-        <v>2187.815519900993</v>
+        <v>2382.599108526803</v>
       </c>
       <c r="Y14" t="n">
-        <v>1886.265492108783</v>
+        <v>2081.049080734592</v>
       </c>
     </row>
     <row r="15">
@@ -5340,10 +5340,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E15" t="n">
-        <v>444.2954221366067</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F15" t="n">
-        <v>319.8636160197385</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G15" t="n">
         <v>199.803798091603</v>
@@ -5352,28 +5352,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I15" t="n">
-        <v>62.11912770411549</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>494.9732559860693</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L15" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M15" t="n">
-        <v>1606.310991511064</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N15" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.0843669551006</v>
+        <v>493.0843669551002</v>
       </c>
       <c r="C16" t="n">
-        <v>417.8199303082781</v>
+        <v>417.8199303082777</v>
       </c>
       <c r="D16" t="n">
-        <v>357.1274984979812</v>
+        <v>357.1274984979808</v>
       </c>
       <c r="E16" t="n">
-        <v>296.509367644372</v>
+        <v>296.5093676443717</v>
       </c>
       <c r="F16" t="n">
-        <v>234.1241141445332</v>
+        <v>234.1241141445329</v>
       </c>
       <c r="G16" t="n">
-        <v>160.810741531167</v>
+        <v>160.8107415311669</v>
       </c>
       <c r="H16" t="n">
-        <v>100.2728717798493</v>
+        <v>100.2728717798491</v>
       </c>
       <c r="I16" t="n">
-        <v>62.11912770411549</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>125.3967468362512</v>
+        <v>125.3967468362513</v>
       </c>
       <c r="K16" t="n">
         <v>300.2831496757665</v>
@@ -5449,37 +5449,37 @@
         <v>1113.046087107759</v>
       </c>
       <c r="O16" t="n">
-        <v>1368.802215879041</v>
+        <v>1368.80221587904</v>
       </c>
       <c r="P16" t="n">
         <v>1581.729743385192</v>
       </c>
       <c r="Q16" t="n">
-        <v>1678.203301484817</v>
+        <v>1678.203301484816</v>
       </c>
       <c r="R16" t="n">
         <v>1649.242993404582</v>
       </c>
       <c r="S16" t="n">
-        <v>1541.36759087432</v>
+        <v>1541.367590874319</v>
       </c>
       <c r="T16" t="n">
         <v>1400.589220329742</v>
       </c>
       <c r="U16" t="n">
-        <v>1210.091109858832</v>
+        <v>1210.091109858831</v>
       </c>
       <c r="V16" t="n">
-        <v>1039.052445966845</v>
+        <v>1039.052445966844</v>
       </c>
       <c r="W16" t="n">
-        <v>850.6627251852104</v>
+        <v>850.6627251852098</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553818</v>
+        <v>711.5230842553815</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.3517043592135</v>
+        <v>583.351704359213</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975449</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099313</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924214</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411549</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404052</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L17" t="n">
         <v>1059.071548358934</v>
       </c>
       <c r="M17" t="n">
-        <v>1605.072448403514</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N17" t="n">
-        <v>2132.883732040976</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O17" t="n">
-        <v>2572.923332933304</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P17" t="n">
-        <v>2921.110825064826</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q17" t="n">
-        <v>3105.956385205774</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R17" t="n">
-        <v>3105.956385205774</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829234</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.295701071059</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.467337224689</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840155</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443164</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="18">
@@ -5577,10 +5577,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E18" t="n">
-        <v>444.2954221366067</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F18" t="n">
-        <v>319.8636160197385</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G18" t="n">
         <v>199.803798091603</v>
@@ -5589,28 +5589,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I18" t="n">
-        <v>62.11912770411549</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>494.9732559860692</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L18" t="n">
-        <v>978.5393418843823</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M18" t="n">
-        <v>1606.310991511064</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N18" t="n">
-        <v>1740.468202408464</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408464</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P18" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885588</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369566</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218801</v>
+        <v>173.4472215218799</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634909</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072663</v>
+        <v>87.33863074072654</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462908</v>
       </c>
       <c r="I19" t="n">
-        <v>62.11912770411549</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411549</v>
+        <v>67.69877031229791</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222398</v>
       </c>
       <c r="L19" t="n">
-        <v>313.6614512960405</v>
+        <v>313.6614512960396</v>
       </c>
       <c r="M19" t="n">
-        <v>629.0093992567331</v>
+        <v>499.9530296343036</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879423</v>
+        <v>683.1426636655128</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296503</v>
+        <v>845.8474307072208</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106229</v>
+        <v>965.7235964837994</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918796</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161897</v>
+        <v>769.258445116189</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194224</v>
+        <v>634.9558366194218</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330085</v>
+        <v>483.302171233008</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984001</v>
+        <v>380.8985856983996</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974515</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H20" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129435</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404052</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L20" t="n">
         <v>1059.071548358934</v>
       </c>
       <c r="M20" t="n">
-        <v>1605.072448403514</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040976</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O20" t="n">
-        <v>2572.923332933304</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P20" t="n">
-        <v>2921.110825064825</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
         <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>494.9732559860693</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843823</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M21" t="n">
-        <v>1223.947919817483</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N21" t="n">
-        <v>1223.947919817483</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O21" t="n">
-        <v>1740.468202408464</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="P21" t="n">
-        <v>2146.089571124861</v>
+        <v>2234.856203156066</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,52 +5884,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229905</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222409</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960407</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>499.9530296343048</v>
       </c>
       <c r="N22" t="n">
-        <v>677.5630210573304</v>
+        <v>683.142663665514</v>
       </c>
       <c r="O22" t="n">
-        <v>840.2677880990384</v>
+        <v>845.8474307072221</v>
       </c>
       <c r="P22" t="n">
-        <v>960.1439538756169</v>
+        <v>965.7235964838006</v>
       </c>
       <c r="Q22" t="n">
-        <v>1092.622519868097</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5972,25 +5972,25 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.7795079292424</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L23" t="n">
         <v>1059.071548358934</v>
@@ -6066,25 +6066,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>689.8907773307967</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N24" t="n">
-        <v>1345.668748541356</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O24" t="n">
-        <v>1862.189031132337</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P24" t="n">
-        <v>2267.810399848734</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6145,25 +6145,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229859</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222405</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960402</v>
       </c>
       <c r="M25" t="n">
-        <v>623.4297566485498</v>
+        <v>499.9530296343043</v>
       </c>
       <c r="N25" t="n">
-        <v>806.6193906797589</v>
+        <v>683.1426636655135</v>
       </c>
       <c r="O25" t="n">
-        <v>969.3241577214669</v>
+        <v>845.8474307072216</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>965.7235964838002</v>
       </c>
       <c r="Q25" t="n">
         <v>1098.20216247628</v>
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1623.498982986202</v>
+        <v>1878.730540066872</v>
       </c>
       <c r="C26" t="n">
-        <v>1325.264162776321</v>
+        <v>1580.495719856991</v>
       </c>
       <c r="D26" t="n">
-        <v>1288.543166249368</v>
+        <v>1289.995272360847</v>
       </c>
       <c r="E26" t="n">
-        <v>980.9003226531014</v>
+        <v>982.3524287645799</v>
       </c>
       <c r="F26" t="n">
-        <v>658.9465654702675</v>
+        <v>660.398671581746</v>
       </c>
       <c r="G26" t="n">
-        <v>340.724491245459</v>
+        <v>342.1765973569376</v>
       </c>
       <c r="H26" t="n">
-        <v>111.582122099138</v>
+        <v>113.0342282106166</v>
       </c>
       <c r="I26" t="n">
-        <v>68.18568647879124</v>
+        <v>69.63779259026975</v>
       </c>
       <c r="J26" t="n">
-        <v>212.8354593876194</v>
+        <v>307.3389272286711</v>
       </c>
       <c r="K26" t="n">
-        <v>571.8178154150812</v>
+        <v>759.3726449857063</v>
       </c>
       <c r="L26" t="n">
-        <v>1120.482256635561</v>
+        <v>1345.744298433809</v>
       </c>
       <c r="M26" t="n">
-        <v>1759.534518409715</v>
+        <v>1925.191185713213</v>
       </c>
       <c r="N26" t="n">
-        <v>2287.345802047177</v>
+        <v>2453.002469350675</v>
       </c>
       <c r="O26" t="n">
-        <v>2727.385402939505</v>
+        <v>2893.042070243004</v>
       </c>
       <c r="P26" t="n">
-        <v>3075.572895071027</v>
+        <v>3241.229562374525</v>
       </c>
       <c r="Q26" t="n">
-        <v>3353.469816941549</v>
+        <v>3426.075122515474</v>
       </c>
       <c r="R26" t="n">
-        <v>3409.284323939562</v>
+        <v>3481.889629513487</v>
       </c>
       <c r="S26" t="n">
-        <v>3337.711450167801</v>
+        <v>3410.316755741726</v>
       </c>
       <c r="T26" t="n">
-        <v>3209.151529014406</v>
+        <v>3281.756834588331</v>
       </c>
       <c r="U26" t="n">
-        <v>3048.339480736193</v>
+        <v>3281.756834588331</v>
       </c>
       <c r="V26" t="n">
-        <v>2801.1733527269</v>
+        <v>3034.590706579038</v>
       </c>
       <c r="W26" t="n">
-        <v>2525.114998982375</v>
+        <v>2758.532352834514</v>
       </c>
       <c r="X26" t="n">
-        <v>2230.60307520262</v>
+        <v>2464.020429054759</v>
       </c>
       <c r="Y26" t="n">
-        <v>1929.05304741041</v>
+        <v>2162.470401262548</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>867.5516696188222</v>
+        <v>869.0037757303007</v>
       </c>
       <c r="C27" t="n">
-        <v>716.8974391789144</v>
+        <v>718.3495452903929</v>
       </c>
       <c r="D27" t="n">
-        <v>586.8084718003947</v>
+        <v>588.2605779118733</v>
       </c>
       <c r="E27" t="n">
-        <v>450.3619809112824</v>
+        <v>451.814087022761</v>
       </c>
       <c r="F27" t="n">
-        <v>325.9301747944143</v>
+        <v>327.3822809058928</v>
       </c>
       <c r="G27" t="n">
-        <v>205.8703568662787</v>
+        <v>207.3224629777573</v>
       </c>
       <c r="H27" t="n">
-        <v>117.5729404668797</v>
+        <v>119.0250465783582</v>
       </c>
       <c r="I27" t="n">
-        <v>68.18568647879124</v>
+        <v>69.63779259026975</v>
       </c>
       <c r="J27" t="n">
-        <v>68.18568647879124</v>
+        <v>182.7527748099971</v>
       </c>
       <c r="K27" t="n">
-        <v>387.9248325410177</v>
+        <v>502.4919208722235</v>
       </c>
       <c r="L27" t="n">
-        <v>871.4909184393309</v>
+        <v>502.4919208722235</v>
       </c>
       <c r="M27" t="n">
-        <v>871.4909184393309</v>
+        <v>1130.263570498905</v>
       </c>
       <c r="N27" t="n">
-        <v>1230.014478592158</v>
+        <v>1786.041541709464</v>
       </c>
       <c r="O27" t="n">
-        <v>1746.534761183139</v>
+        <v>1786.041541709464</v>
       </c>
       <c r="P27" t="n">
-        <v>2152.156129899537</v>
+        <v>2153.608236011015</v>
       </c>
       <c r="Q27" t="n">
-        <v>2386.521221454427</v>
+        <v>2387.973327565906</v>
       </c>
       <c r="R27" t="n">
-        <v>2362.604178352492</v>
+        <v>2364.05628446397</v>
       </c>
       <c r="S27" t="n">
-        <v>2227.67350125236</v>
+        <v>2229.125607363839</v>
       </c>
       <c r="T27" t="n">
-        <v>2050.689689451269</v>
+        <v>2052.141795562748</v>
       </c>
       <c r="U27" t="n">
-        <v>1840.626546129911</v>
+        <v>1842.078652241389</v>
       </c>
       <c r="V27" t="n">
-        <v>1618.086544500978</v>
+        <v>1619.538650612456</v>
       </c>
       <c r="W27" t="n">
-        <v>1387.969298634265</v>
+        <v>1389.421404745743</v>
       </c>
       <c r="X27" t="n">
-        <v>1198.662220984276</v>
+        <v>1200.114327095755</v>
       </c>
       <c r="Y27" t="n">
-        <v>1019.348004059784</v>
+        <v>1020.800110171262</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>499.150925729776</v>
+        <v>500.6030318412547</v>
       </c>
       <c r="C28" t="n">
-        <v>423.8864890829534</v>
+        <v>425.3385951944322</v>
       </c>
       <c r="D28" t="n">
-        <v>363.1940572726564</v>
+        <v>364.6461633841354</v>
       </c>
       <c r="E28" t="n">
-        <v>302.5759264190472</v>
+        <v>304.0280325305263</v>
       </c>
       <c r="F28" t="n">
-        <v>240.1906729192085</v>
+        <v>241.6427790306875</v>
       </c>
       <c r="G28" t="n">
-        <v>166.8773003058425</v>
+        <v>168.3294064173215</v>
       </c>
       <c r="H28" t="n">
-        <v>106.3394305545251</v>
+        <v>107.7915366660036</v>
       </c>
       <c r="I28" t="n">
-        <v>68.18568647879124</v>
+        <v>69.63779259026975</v>
       </c>
       <c r="J28" t="n">
-        <v>131.4633056109271</v>
+        <v>132.9154117224057</v>
       </c>
       <c r="K28" t="n">
-        <v>306.3497084504422</v>
+        <v>307.8018145619208</v>
       </c>
       <c r="L28" t="n">
-        <v>563.5287100538151</v>
+        <v>564.9808161652938</v>
       </c>
       <c r="M28" t="n">
-        <v>842.8716501216522</v>
+        <v>844.3237562331311</v>
       </c>
       <c r="N28" t="n">
-        <v>1119.112645882434</v>
+        <v>1120.564751993914</v>
       </c>
       <c r="O28" t="n">
-        <v>1374.868774653716</v>
+        <v>1376.320880765195</v>
       </c>
       <c r="P28" t="n">
-        <v>1587.796302159868</v>
+        <v>1589.248408271347</v>
       </c>
       <c r="Q28" t="n">
-        <v>1684.269860259492</v>
+        <v>1685.721966370971</v>
       </c>
       <c r="R28" t="n">
-        <v>1655.309552179258</v>
+        <v>1656.761658290736</v>
       </c>
       <c r="S28" t="n">
-        <v>1547.434149648995</v>
+        <v>1548.886255760474</v>
       </c>
       <c r="T28" t="n">
-        <v>1406.655779104418</v>
+        <v>1408.107885215897</v>
       </c>
       <c r="U28" t="n">
-        <v>1216.157668633507</v>
+        <v>1217.609774744986</v>
       </c>
       <c r="V28" t="n">
-        <v>1045.11900474152</v>
+        <v>1046.571110852999</v>
       </c>
       <c r="W28" t="n">
-        <v>856.7292839598858</v>
+        <v>858.1813900713645</v>
       </c>
       <c r="X28" t="n">
-        <v>717.5896430300572</v>
+        <v>719.0417491415359</v>
       </c>
       <c r="Y28" t="n">
-        <v>589.4182631338889</v>
+        <v>590.8703692453676</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1870.665110995495</v>
+        <v>1696.104288560126</v>
       </c>
       <c r="C29" t="n">
-        <v>1572.430290785614</v>
+        <v>1397.869468350245</v>
       </c>
       <c r="D29" t="n">
-        <v>1281.929843289469</v>
+        <v>1107.369020854101</v>
       </c>
       <c r="E29" t="n">
-        <v>974.2869996932022</v>
+        <v>799.7261772578343</v>
       </c>
       <c r="F29" t="n">
-        <v>652.3332425103683</v>
+        <v>477.7724200750004</v>
       </c>
       <c r="G29" t="n">
-        <v>340.7244912454591</v>
+        <v>159.5503458501919</v>
       </c>
       <c r="H29" t="n">
-        <v>111.5821220991381</v>
+        <v>113.0342282106166</v>
       </c>
       <c r="I29" t="n">
-        <v>68.18568647879124</v>
+        <v>69.63779259026975</v>
       </c>
       <c r="J29" t="n">
-        <v>212.8354593876194</v>
+        <v>214.2875654990979</v>
       </c>
       <c r="K29" t="n">
-        <v>664.8691771446545</v>
+        <v>573.2699215265598</v>
       </c>
       <c r="L29" t="n">
-        <v>1251.240830592757</v>
+        <v>1066.590213245089</v>
       </c>
       <c r="M29" t="n">
-        <v>1852.585880139287</v>
+        <v>1612.591113289669</v>
       </c>
       <c r="N29" t="n">
-        <v>2380.397163776749</v>
+        <v>2173.848384161955</v>
       </c>
       <c r="O29" t="n">
-        <v>2820.436764669078</v>
+        <v>2706.939346783857</v>
       </c>
       <c r="P29" t="n">
-        <v>3168.6242568006</v>
+        <v>3148.178200644952</v>
       </c>
       <c r="Q29" t="n">
-        <v>3353.469816941549</v>
+        <v>3426.075122515474</v>
       </c>
       <c r="R29" t="n">
-        <v>3409.284323939562</v>
+        <v>3481.889629513487</v>
       </c>
       <c r="S29" t="n">
-        <v>3337.711450167801</v>
+        <v>3410.316755741726</v>
       </c>
       <c r="T29" t="n">
-        <v>3209.151529014406</v>
+        <v>3281.756834588331</v>
       </c>
       <c r="U29" t="n">
-        <v>3048.339480736193</v>
+        <v>3120.944786310118</v>
       </c>
       <c r="V29" t="n">
-        <v>3048.339480736193</v>
+        <v>2873.778658300824</v>
       </c>
       <c r="W29" t="n">
-        <v>2772.281126991669</v>
+        <v>2597.7203045563</v>
       </c>
       <c r="X29" t="n">
-        <v>2477.769203211914</v>
+        <v>2303.208380776545</v>
       </c>
       <c r="Y29" t="n">
-        <v>2176.219175419704</v>
+        <v>2001.658352984335</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>867.5516696188222</v>
+        <v>869.0037757303007</v>
       </c>
       <c r="C30" t="n">
-        <v>716.8974391789144</v>
+        <v>718.3495452903929</v>
       </c>
       <c r="D30" t="n">
-        <v>586.8084718003947</v>
+        <v>588.2605779118733</v>
       </c>
       <c r="E30" t="n">
-        <v>450.3619809112824</v>
+        <v>451.814087022761</v>
       </c>
       <c r="F30" t="n">
-        <v>325.9301747944143</v>
+        <v>327.3822809058928</v>
       </c>
       <c r="G30" t="n">
-        <v>205.8703568662787</v>
+        <v>207.3224629777573</v>
       </c>
       <c r="H30" t="n">
-        <v>117.5729404668797</v>
+        <v>119.0250465783582</v>
       </c>
       <c r="I30" t="n">
-        <v>68.18568647879124</v>
+        <v>69.63779259026975</v>
       </c>
       <c r="J30" t="n">
-        <v>68.18568647879124</v>
+        <v>182.7527748099971</v>
       </c>
       <c r="K30" t="n">
-        <v>387.9248325410177</v>
+        <v>502.4919208722235</v>
       </c>
       <c r="L30" t="n">
-        <v>871.4909184393309</v>
+        <v>986.0580067705368</v>
       </c>
       <c r="M30" t="n">
-        <v>871.4909184393309</v>
+        <v>1231.466584703637</v>
       </c>
       <c r="N30" t="n">
-        <v>1230.014478592158</v>
+        <v>1231.466584703637</v>
       </c>
       <c r="O30" t="n">
-        <v>1746.534761183139</v>
+        <v>1747.986867294618</v>
       </c>
       <c r="P30" t="n">
-        <v>2152.156129899537</v>
+        <v>2153.608236011015</v>
       </c>
       <c r="Q30" t="n">
-        <v>2386.521221454427</v>
+        <v>2387.973327565906</v>
       </c>
       <c r="R30" t="n">
-        <v>2362.604178352492</v>
+        <v>2364.05628446397</v>
       </c>
       <c r="S30" t="n">
-        <v>2227.67350125236</v>
+        <v>2229.125607363839</v>
       </c>
       <c r="T30" t="n">
-        <v>2050.689689451269</v>
+        <v>2052.141795562748</v>
       </c>
       <c r="U30" t="n">
-        <v>1840.626546129911</v>
+        <v>1842.078652241389</v>
       </c>
       <c r="V30" t="n">
-        <v>1618.086544500978</v>
+        <v>1619.538650612456</v>
       </c>
       <c r="W30" t="n">
-        <v>1387.969298634265</v>
+        <v>1389.421404745743</v>
       </c>
       <c r="X30" t="n">
-        <v>1198.662220984276</v>
+        <v>1200.114327095755</v>
       </c>
       <c r="Y30" t="n">
-        <v>1019.348004059784</v>
+        <v>1020.800110171262</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>499.1509257297764</v>
+        <v>500.6030318412547</v>
       </c>
       <c r="C31" t="n">
-        <v>423.8864890829539</v>
+        <v>425.3385951944322</v>
       </c>
       <c r="D31" t="n">
-        <v>363.1940572726569</v>
+        <v>364.6461633841353</v>
       </c>
       <c r="E31" t="n">
-        <v>302.5759264190476</v>
+        <v>304.0280325305262</v>
       </c>
       <c r="F31" t="n">
-        <v>240.1906729192089</v>
+        <v>241.6427790306874</v>
       </c>
       <c r="G31" t="n">
-        <v>166.8773003058427</v>
+        <v>168.3294064173214</v>
       </c>
       <c r="H31" t="n">
-        <v>106.3394305545251</v>
+        <v>107.7915366660035</v>
       </c>
       <c r="I31" t="n">
-        <v>68.18568647879124</v>
+        <v>69.63779259026975</v>
       </c>
       <c r="J31" t="n">
-        <v>131.4633056109271</v>
+        <v>132.9154117224056</v>
       </c>
       <c r="K31" t="n">
-        <v>306.3497084504422</v>
+        <v>307.8018145619208</v>
       </c>
       <c r="L31" t="n">
-        <v>563.5287100538153</v>
+        <v>564.9808161652938</v>
       </c>
       <c r="M31" t="n">
-        <v>842.8716501216529</v>
+        <v>844.3237562331311</v>
       </c>
       <c r="N31" t="n">
-        <v>1119.112645882435</v>
+        <v>1120.564751993914</v>
       </c>
       <c r="O31" t="n">
-        <v>1374.868774653717</v>
+        <v>1376.320880765195</v>
       </c>
       <c r="P31" t="n">
-        <v>1587.796302159869</v>
+        <v>1589.248408271347</v>
       </c>
       <c r="Q31" t="n">
-        <v>1684.269860259493</v>
+        <v>1685.721966370971</v>
       </c>
       <c r="R31" t="n">
-        <v>1655.309552179258</v>
+        <v>1656.761658290736</v>
       </c>
       <c r="S31" t="n">
-        <v>1547.434149648996</v>
+        <v>1548.886255760474</v>
       </c>
       <c r="T31" t="n">
-        <v>1406.655779104418</v>
+        <v>1408.107885215896</v>
       </c>
       <c r="U31" t="n">
-        <v>1216.157668633508</v>
+        <v>1217.609774744986</v>
       </c>
       <c r="V31" t="n">
-        <v>1045.11900474152</v>
+        <v>1046.571110852998</v>
       </c>
       <c r="W31" t="n">
-        <v>856.7292839598863</v>
+        <v>858.1813900713644</v>
       </c>
       <c r="X31" t="n">
-        <v>717.5896430300577</v>
+        <v>719.0417491415359</v>
       </c>
       <c r="Y31" t="n">
-        <v>589.4182631338895</v>
+        <v>590.8703692453676</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C32" t="n">
         <v>1352.560722599516</v>
@@ -6692,25 +6692,25 @@
         <v>261.185821680343</v>
       </c>
       <c r="H32" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I32" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J32" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K32" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L32" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M32" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N32" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O32" t="n">
         <v>2572.923332933306</v>
@@ -6725,7 +6725,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S32" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T32" t="n">
         <v>2979.295701071061</v>
@@ -6734,7 +6734,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V32" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W32" t="n">
         <v>2405.467337224691</v>
@@ -6780,19 +6780,19 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K33" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L33" t="n">
-        <v>978.5393418843826</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M33" t="n">
-        <v>978.5393418843826</v>
+        <v>803.0057595505241</v>
       </c>
       <c r="N33" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.783730761083</v>
       </c>
       <c r="O33" t="n">
-        <v>1740.468202408463</v>
+        <v>1975.304013352064</v>
       </c>
       <c r="P33" t="n">
         <v>2146.089571124861</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C34" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D34" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E34" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F34" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G34" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H34" t="n">
-        <v>63.53681638462917</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I34" t="n">
         <v>62.11912770411553</v>
@@ -6868,40 +6868,40 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N34" t="n">
-        <v>683.1426636655142</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O34" t="n">
-        <v>974.9038003296507</v>
+        <v>845.8474307072227</v>
       </c>
       <c r="P34" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q34" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R34" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S34" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T34" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U34" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V34" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W34" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X34" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y34" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292424</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J35" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K35" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L35" t="n">
         <v>1059.071548358934</v>
@@ -6971,16 +6971,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="36">
@@ -7014,19 +7014,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K36" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L36" t="n">
-        <v>494.9732559860694</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M36" t="n">
-        <v>1084.690231197904</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N36" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
         <v>1740.468202408463</v>
@@ -7069,46 +7069,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>67.69877031229927</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>149.5338114222411</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>313.6614512960409</v>
+        <v>313.6614512960402</v>
       </c>
       <c r="M37" t="n">
-        <v>499.953029634305</v>
+        <v>499.9530296343043</v>
       </c>
       <c r="N37" t="n">
-        <v>683.1426636655142</v>
+        <v>683.1426636655135</v>
       </c>
       <c r="O37" t="n">
-        <v>845.8474307072222</v>
+        <v>845.8474307072216</v>
       </c>
       <c r="P37" t="n">
         <v>1094.779966106229</v>
@@ -7123,22 +7123,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U37" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="38">
@@ -7154,19 +7154,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924227</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7193,13 +7193,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q38" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7208,7 +7208,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
         <v>2405.467337224691</v>
@@ -7217,7 +7217,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="39">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462917</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7333,49 +7333,49 @@
         <v>161.4017547291066</v>
       </c>
       <c r="K40" t="n">
-        <v>270.9691711012525</v>
+        <v>270.969171101253</v>
       </c>
       <c r="L40" t="n">
-        <v>435.0968109750523</v>
+        <v>435.0968109750528</v>
       </c>
       <c r="M40" t="n">
-        <v>621.3883893133163</v>
+        <v>621.3883893133168</v>
       </c>
       <c r="N40" t="n">
-        <v>804.5780233445255</v>
+        <v>804.5780233445259</v>
       </c>
       <c r="O40" t="n">
-        <v>967.2827903862335</v>
+        <v>967.282790386234</v>
       </c>
       <c r="P40" t="n">
-        <v>1087.158956162812</v>
+        <v>1087.158956162813</v>
       </c>
       <c r="Q40" t="n">
         <v>1090.581152532863</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S40" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="41">
@@ -7391,28 +7391,28 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D41" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.7795079292424</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J41" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K41" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L41" t="n">
         <v>1059.071548358934</v>
@@ -7433,10 +7433,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T41" t="n">
         <v>2979.295701071061</v>
@@ -7448,7 +7448,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X41" t="n">
         <v>2147.691468840156</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7573,16 +7573,16 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M43" t="n">
-        <v>499.9530296343043</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N43" t="n">
-        <v>683.1426636655135</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O43" t="n">
-        <v>845.8474307072216</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P43" t="n">
         <v>1094.779966106229</v>
@@ -7597,22 +7597,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1691.216969670195</v>
+        <v>1471.6890844189</v>
       </c>
       <c r="C44" t="n">
-        <v>1415.748561108677</v>
+        <v>1192.39401922983</v>
       </c>
       <c r="D44" t="n">
-        <v>1148.014525260895</v>
+        <v>920.8333267544958</v>
       </c>
       <c r="E44" t="n">
-        <v>863.1380933129908</v>
+        <v>899.0747437951836</v>
       </c>
       <c r="F44" t="n">
-        <v>563.9507477785196</v>
+        <v>596.0607416331603</v>
       </c>
       <c r="G44" t="n">
-        <v>268.4950852020739</v>
+        <v>296.7784224291623</v>
       </c>
       <c r="H44" t="n">
-        <v>62.1191277041155</v>
+        <v>86.57580830365183</v>
       </c>
       <c r="I44" t="n">
-        <v>62.1191277041155</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J44" t="n">
         <v>206.7689006129436</v>
@@ -7670,28 +7670,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3057.149923082377</v>
+        <v>3053.323266454826</v>
       </c>
       <c r="T44" t="n">
-        <v>3002.225409178373</v>
+        <v>2943.703100322241</v>
       </c>
       <c r="U44" t="n">
-        <v>3002.225409178373</v>
+        <v>2801.830807064839</v>
       </c>
       <c r="V44" t="n">
-        <v>2777.825692817443</v>
+        <v>2573.604434076356</v>
       </c>
       <c r="W44" t="n">
-        <v>2524.533750721282</v>
+        <v>2316.485835352643</v>
       </c>
       <c r="X44" t="n">
-        <v>2252.788238589889</v>
+        <v>2040.913666593699</v>
       </c>
       <c r="Y44" t="n">
-        <v>1974.004622446041</v>
+        <v>1758.303393822298</v>
       </c>
     </row>
     <row r="45">
@@ -7710,10 +7710,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E45" t="n">
-        <v>444.2954221366067</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F45" t="n">
-        <v>319.8636160197385</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G45" t="n">
         <v>199.803798091603</v>
@@ -7722,28 +7722,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>62.1191277041155</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.1191277041155</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>381.8582737663419</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L45" t="n">
-        <v>865.4243596646552</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M45" t="n">
-        <v>865.4243596646552</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P45" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>333.7194854165619</v>
+        <v>360.5060818094266</v>
       </c>
       <c r="C46" t="n">
-        <v>281.2214604181021</v>
+        <v>304.1814001834147</v>
       </c>
       <c r="D46" t="n">
-        <v>243.2954402561678</v>
+        <v>262.4287233939283</v>
       </c>
       <c r="E46" t="n">
-        <v>205.4437210509213</v>
+        <v>220.7503475611297</v>
       </c>
       <c r="F46" t="n">
-        <v>165.8248791994452</v>
+        <v>177.3048490821015</v>
       </c>
       <c r="G46" t="n">
-        <v>115.2779182344417</v>
+        <v>122.9312314895459</v>
       </c>
       <c r="H46" t="n">
-        <v>77.50646013148665</v>
+        <v>81.33311675903877</v>
       </c>
       <c r="I46" t="n">
-        <v>62.1191277041155</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>62.1191277041155</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>143.9541688140574</v>
+        <v>220.7125928438286</v>
       </c>
       <c r="L46" t="n">
-        <v>308.0818086878571</v>
+        <v>496.4544483430981</v>
       </c>
       <c r="M46" t="n">
-        <v>494.3733870261211</v>
+        <v>794.3602423068319</v>
       </c>
       <c r="N46" t="n">
-        <v>792.9277428434639</v>
+        <v>1089.164091963511</v>
       </c>
       <c r="O46" t="n">
-        <v>1070.997231671305</v>
+        <v>1251.868859005219</v>
       </c>
       <c r="P46" t="n">
-        <v>1306.238119234017</v>
+        <v>1371.745024781797</v>
       </c>
       <c r="Q46" t="n">
-        <v>1313.940715111015</v>
+        <v>1375.167221151848</v>
       </c>
       <c r="R46" t="n">
-        <v>1307.746818679143</v>
+        <v>1365.146668092424</v>
       </c>
       <c r="S46" t="n">
-        <v>1222.637827797243</v>
+        <v>1276.211020582972</v>
       </c>
       <c r="T46" t="n">
-        <v>1104.625868901028</v>
+        <v>1154.372405059205</v>
       </c>
       <c r="U46" t="n">
-        <v>936.8941700784801</v>
+        <v>982.8140496091052</v>
       </c>
       <c r="V46" t="n">
-        <v>788.6219178348553</v>
+        <v>830.7151407379282</v>
       </c>
       <c r="W46" t="n">
-        <v>622.9986087015839</v>
+        <v>661.2651749771047</v>
       </c>
       <c r="X46" t="n">
-        <v>506.6253794201179</v>
+        <v>541.0652890680867</v>
       </c>
       <c r="Y46" t="n">
-        <v>401.2204111723122</v>
+        <v>431.833664192729</v>
       </c>
     </row>
   </sheetData>
@@ -7982,19 +7982,19 @@
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>520.3596503317287</v>
+        <v>650.676984922859</v>
       </c>
       <c r="M2" t="n">
-        <v>665.305193183576</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>149.1184913377841</v>
+        <v>646.5473065301513</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>317.9680579009274</v>
       </c>
       <c r="Q2" t="n">
         <v>144.4986984183922</v>
@@ -8064,10 +8064,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>607.9672636351606</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>275.8854784600983</v>
+        <v>482.8612856849995</v>
       </c>
       <c r="O3" t="n">
         <v>92.68755888888889</v>
@@ -8076,7 +8076,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,25 +8213,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>650.676984922859</v>
       </c>
       <c r="M5" t="n">
-        <v>665.305193183576</v>
+        <v>328.2955651829216</v>
       </c>
       <c r="N5" t="n">
-        <v>664.6986329236329</v>
+        <v>646.5473065301513</v>
       </c>
       <c r="O5" t="n">
-        <v>152.8699525975586</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
         <v>144.4986984183922</v>
@@ -8292,28 +8292,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>607.9672636351606</v>
+        <v>489.8762948801448</v>
       </c>
       <c r="N6" t="n">
-        <v>600.9522544400154</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>608.2677004747377</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>176.0182196106199</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
         <v>505.666843611017</v>
@@ -8465,7 +8465,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>545.7463662600596</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P8" t="n">
         <v>150.3014472409252</v>
@@ -8529,19 +8529,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>595.8073947006751</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>151.5659933015362</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>263.7907196684333</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K11" t="n">
         <v>505.666843611017</v>
@@ -8766,28 +8766,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>176.3345925796061</v>
       </c>
       <c r="M12" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>447.5171231095475</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8939,7 +8939,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O14" t="n">
-        <v>594.0482827698809</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P14" t="n">
         <v>502.0059847475129</v>
@@ -9003,7 +9003,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
@@ -9012,19 +9012,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N15" t="n">
-        <v>345.5977578821532</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9240,10 +9240,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
@@ -9252,16 +9252,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>220.8844470939649</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>92.68755888888904</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9419,7 +9419,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q20" t="n">
-        <v>331.2113854294539</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9477,28 +9477,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>340.2745745069892</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416683</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>238.0573041899393</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9714,19 +9714,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9735,7 +9735,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>204.7702368236083</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9951,25 +9951,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>447.5171231095475</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>458.3628540128012</v>
       </c>
       <c r="Q27" t="n">
         <v>327.7205688679246</v>
@@ -10188,7 +10188,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10197,10 +10197,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069886</v>
       </c>
       <c r="N30" t="n">
-        <v>447.5171231095475</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10428,22 +10428,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>496.801919078302</v>
+        <v>259.5940292362812</v>
       </c>
       <c r="Q33" t="n">
         <v>327.7205688679246</v>
@@ -10662,22 +10662,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>688.0608343844987</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O36" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
         <v>496.801919078302</v>
@@ -10841,7 +10841,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q38" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294519</v>
       </c>
       <c r="R38" t="n">
         <v>102.5176150018526</v>
@@ -11376,25 +11376,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>447.5171231095475</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>320.116861150632</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,13 +23264,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>318.3963624696934</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>110.2970320459163</v>
       </c>
       <c r="G11" t="n">
-        <v>176.0588557515735</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>88.47548240470897</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,10 +23315,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>258.5244140385893</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>290.9161075777445</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>57.51222016941377</v>
+        <v>77.55082842446998</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>11.85797654959924</v>
       </c>
       <c r="S13" t="n">
-        <v>120.6265958143487</v>
+        <v>124.4149858756251</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>206.2114667368671</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>151.5781918299193</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>51.79721901748738</v>
       </c>
       <c r="D14" t="n">
-        <v>287.5954430211825</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,10 +23546,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>127.2743219418611</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>130.6606576559781</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>291.5668045419573</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-9.766525984932414e-13</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -24440,13 +24440,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>21.59606119624723</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>251.2416564594993</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24497,7 +24497,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24692,10 +24692,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>6.547189730300332</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>180.7999889916783</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24737,7 +24737,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>244.6944667292003</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -25871,7 +25871,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>264.2750605599829</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25883,7 +25883,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>20.42372373226436</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,10 +25916,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>50.36030564501905</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>136.6651802635519</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>802542.8660950846</v>
+        <v>801227.6099838091</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>802542.8660950846</v>
+        <v>801227.6099838091</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>747241.041547405</v>
+        <v>740382.791426499</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>772277.8609542171</v>
+        <v>772277.8609542174</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>816787.6881357032</v>
+        <v>816787.6881357033</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>796288.8813851726</v>
+        <v>802036.2170338721</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>796288.8813851726</v>
+        <v>802036.2170338721</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>799861.9071211074</v>
+        <v>795225.4859446142</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>522963.3164707346</v>
       </c>
       <c r="C2" t="n">
-        <v>522963.3164707345</v>
+        <v>522963.3164707347</v>
       </c>
       <c r="D2" t="n">
-        <v>522963.3164707347</v>
+        <v>522963.3164707344</v>
       </c>
       <c r="E2" t="n">
-        <v>473771.7859570596</v>
+        <v>468920.8285544682</v>
       </c>
       <c r="F2" t="n">
-        <v>491480.7557813907</v>
+        <v>491480.7557813911</v>
       </c>
       <c r="G2" t="n">
-        <v>522963.3164707344</v>
+        <v>522963.3164707351</v>
       </c>
       <c r="H2" t="n">
-        <v>522963.3164707339</v>
+        <v>522963.3164707349</v>
       </c>
       <c r="I2" t="n">
+        <v>522963.316470735</v>
+      </c>
+      <c r="J2" t="n">
+        <v>512529.349106025</v>
+      </c>
+      <c r="K2" t="n">
+        <v>512529.3491060249</v>
+      </c>
+      <c r="L2" t="n">
         <v>522963.3164707351</v>
       </c>
-      <c r="J2" t="n">
-        <v>508464.1604764574</v>
-      </c>
-      <c r="K2" t="n">
-        <v>508464.1604764569</v>
-      </c>
-      <c r="L2" t="n">
-        <v>522963.3164707349</v>
-      </c>
       <c r="M2" t="n">
-        <v>522963.3164707349</v>
+        <v>522963.316470735</v>
       </c>
       <c r="N2" t="n">
         <v>522963.3164707351</v>
       </c>
       <c r="O2" t="n">
-        <v>522963.3164707351</v>
+        <v>522963.3164707349</v>
       </c>
       <c r="P2" t="n">
-        <v>510991.4225823618</v>
+        <v>507712.0027258179</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>172782.7637886744</v>
+        <v>166699.8368337117</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23555.68940221893</v>
+        <v>29194.03591982608</v>
       </c>
       <c r="E3" t="n">
-        <v>119388.9732902008</v>
+        <v>116358.2612411798</v>
       </c>
       <c r="F3" t="n">
-        <v>11063.95784751118</v>
+        <v>14094.66989653239</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.95587301417</v>
+        <v>29094.95587301441</v>
       </c>
       <c r="H3" t="n">
-        <v>1.22694927995326e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.2551338074972e-10</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>189773.5402245311</v>
+        <v>186742.8281755098</v>
       </c>
       <c r="K3" t="n">
-        <v>11063.95784751116</v>
+        <v>14094.6698965324</v>
       </c>
       <c r="L3" t="n">
-        <v>58189.91174602874</v>
+        <v>58189.91174602872</v>
       </c>
       <c r="M3" t="n">
-        <v>46121.92123989155</v>
+        <v>46121.92123989166</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>35034.10585892764</v>
+        <v>32003.39380990643</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,34 +26415,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>237964.4579559162</v>
+        <v>241541.1549972561</v>
       </c>
       <c r="C4" t="n">
-        <v>237964.4579559163</v>
+        <v>241541.1549972561</v>
       </c>
       <c r="D4" t="n">
         <v>223021.8565516675</v>
       </c>
       <c r="E4" t="n">
-        <v>160689.0552115089</v>
+        <v>156860.7138351674</v>
       </c>
       <c r="F4" t="n">
-        <v>174664.8493247783</v>
+        <v>174664.8493247784</v>
       </c>
       <c r="G4" t="n">
+        <v>199269.1699682604</v>
+      </c>
+      <c r="H4" t="n">
         <v>199269.1699682603</v>
-      </c>
-      <c r="H4" t="n">
-        <v>199269.1699682604</v>
       </c>
       <c r="I4" t="n">
         <v>199269.1699682603</v>
       </c>
       <c r="J4" t="n">
-        <v>188342.6138569497</v>
+        <v>191616.5564999254</v>
       </c>
       <c r="K4" t="n">
-        <v>188342.6138569496</v>
+        <v>191616.5564999254</v>
       </c>
       <c r="L4" t="n">
         <v>199269.1699682603</v>
@@ -26457,7 +26457,7 @@
         <v>199269.1699682603</v>
       </c>
       <c r="P4" t="n">
-        <v>189911.3667955426</v>
+        <v>187348.6797973576</v>
       </c>
     </row>
     <row r="5">
@@ -26467,34 +26467,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>64974.8726084196</v>
+        <v>63871.27196369592</v>
       </c>
       <c r="C5" t="n">
-        <v>64974.8726084196</v>
+        <v>63871.27196369592</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>53949.61966855605</v>
+        <v>53631.13350449463</v>
       </c>
       <c r="F5" t="n">
-        <v>55112.28950890907</v>
+        <v>55112.2895089091</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551962</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>59722.87417766266</v>
+        <v>60826.47482238631</v>
       </c>
       <c r="K5" t="n">
-        <v>59722.87417766265</v>
+        <v>60826.47482238631</v>
       </c>
       <c r="L5" t="n">
         <v>58169.76931551966</v>
@@ -26506,10 +26506,10 @@
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="P5" t="n">
-        <v>57007.09947516662</v>
+        <v>56688.61331110518</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>47241.22211772433</v>
+        <v>50851.05267607087</v>
       </c>
       <c r="C6" t="n">
-        <v>220023.9859063987</v>
+        <v>217550.8895097826</v>
       </c>
       <c r="D6" t="n">
-        <v>206800.3132396752</v>
+        <v>201161.9667220677</v>
       </c>
       <c r="E6" t="n">
-        <v>139744.1377867938</v>
+        <v>141884.3665670186</v>
       </c>
       <c r="F6" t="n">
-        <v>250639.6591001922</v>
+        <v>247500.38649707</v>
       </c>
       <c r="G6" t="n">
-        <v>236429.4213139403</v>
+        <v>236429.4213139406</v>
       </c>
       <c r="H6" t="n">
-        <v>265524.3771869537</v>
+        <v>265524.377186955</v>
       </c>
       <c r="I6" t="n">
-        <v>265524.3771869548</v>
+        <v>265524.377186955</v>
       </c>
       <c r="J6" t="n">
-        <v>70625.13221731404</v>
+        <v>73307.51041039407</v>
       </c>
       <c r="K6" t="n">
-        <v>249334.7145943334</v>
+        <v>245955.6686893714</v>
       </c>
       <c r="L6" t="n">
-        <v>207334.4654409262</v>
+        <v>207334.4654409264</v>
       </c>
       <c r="M6" t="n">
         <v>219402.4559470633</v>
       </c>
       <c r="N6" t="n">
-        <v>265524.3771869552</v>
+        <v>265524.3771869551</v>
       </c>
       <c r="O6" t="n">
-        <v>230490.2713280275</v>
+        <v>233520.9833770485</v>
       </c>
       <c r="P6" t="n">
-        <v>264072.9563116526</v>
+        <v>263622.1188803037</v>
       </c>
     </row>
   </sheetData>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>80.16132716492744</v>
+        <v>76.37293710365097</v>
       </c>
       <c r="F2" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H2" t="n">
         <v>130.3599693155844</v>
@@ -26707,7 +26707,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
@@ -26725,7 +26725,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="P2" t="n">
-        <v>116.5300220061955</v>
+        <v>112.7416319449189</v>
       </c>
     </row>
     <row r="3">
@@ -26787,34 +26787,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>515.5801415858488</v>
+        <v>497.4288151923673</v>
       </c>
       <c r="C4" t="n">
-        <v>515.5801415858488</v>
+        <v>497.4288151923673</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="E4" t="n">
-        <v>776.4890963014436</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="F4" t="n">
-        <v>776.4890963014436</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
-        <v>776.4890963014436</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="I4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>852.3210809848905</v>
+        <v>870.4724073783718</v>
       </c>
       <c r="K4" t="n">
-        <v>852.3210809848905</v>
+        <v>870.4724073783718</v>
       </c>
       <c r="L4" t="n">
         <v>776.4890963014441</v>
@@ -26823,13 +26823,13 @@
         <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
+        <v>776.4890963014442</v>
+      </c>
+      <c r="O4" t="n">
+        <v>776.4890963014442</v>
+      </c>
+      <c r="P4" t="n">
         <v>776.4890963014441</v>
-      </c>
-      <c r="O4" t="n">
-        <v>776.4890963014441</v>
-      </c>
-      <c r="P4" t="n">
-        <v>776.4890963014437</v>
       </c>
     </row>
   </sheetData>
@@ -26914,28 +26914,28 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>80.16132716492744</v>
+        <v>76.37293710365097</v>
       </c>
       <c r="F2" t="n">
-        <v>13.82994730938897</v>
+        <v>17.61833737066549</v>
       </c>
       <c r="G2" t="n">
-        <v>36.368694841268</v>
+        <v>36.36869484126801</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>43.7926323236595</v>
+        <v>40.004242262383</v>
       </c>
       <c r="K2" t="n">
-        <v>13.82994730938896</v>
+        <v>17.6183373706655</v>
       </c>
       <c r="L2" t="n">
-        <v>72.73738968253592</v>
+        <v>72.73738968253591</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>43.79263232365955</v>
+        <v>40.00424226238303</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.995864235617982e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>515.5801415858488</v>
+        <v>497.4288151923673</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>75.83198468344631</v>
+        <v>93.98331107692781</v>
       </c>
       <c r="E4" t="n">
-        <v>185.0769700321486</v>
+        <v>185.076970032149</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,13 +27027,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692952</v>
+        <v>591.412126269295</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>185.0769700321486</v>
+        <v>185.076970032149</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,25 +27151,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>80.16132716492744</v>
+        <v>76.37293710365097</v>
       </c>
       <c r="K2" t="n">
-        <v>13.82994730938897</v>
+        <v>17.61833737066549</v>
       </c>
       <c r="L2" t="n">
-        <v>36.368694841268</v>
+        <v>36.36869484126801</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>43.7926323236595</v>
+        <v>40.004242262383</v>
       </c>
       <c r="P2" t="n">
-        <v>13.82994730938896</v>
+        <v>17.6183373706655</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>515.5801415858488</v>
+        <v>497.4288151923673</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>75.83198468344631</v>
+        <v>93.98331107692781</v>
       </c>
       <c r="M4" t="n">
-        <v>185.0769700321486</v>
+        <v>185.076970032149</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27382,22 +27382,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>350.2391585581208</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>64.88142305411566</v>
       </c>
     </row>
     <row r="3">
@@ -27503,22 +27503,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>32.25721694421389</v>
       </c>
       <c r="V3" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>73.97416454687391</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
@@ -27549,16 +27549,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>51.67128857227871</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>211.0890067590408</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -27616,25 +27616,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>377.1824593965126</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>211.5469586042333</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
@@ -27698,22 +27698,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>30.41866247456188</v>
+        <v>109.5633901948737</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27774,10 +27774,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
@@ -27789,13 +27789,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,13 +27822,13 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>198.951209941777</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
@@ -27837,7 +27837,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>14.28549167275568</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
@@ -27862,16 +27862,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>260.9040467384031</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>46.45517681130872</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28011,22 +28011,22 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>60.39847475326023</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
@@ -28065,16 +28065,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>165.708020294746</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>80.16132716492744</v>
+        <v>76.37293710365097</v>
       </c>
       <c r="C11" t="n">
-        <v>80.16132716492744</v>
+        <v>76.37293710365097</v>
       </c>
       <c r="D11" t="n">
-        <v>80.16132716492744</v>
+        <v>76.37293710365097</v>
       </c>
       <c r="E11" t="n">
-        <v>80.16132716492744</v>
+        <v>76.37293710365097</v>
       </c>
       <c r="F11" t="n">
-        <v>80.16132716492744</v>
+        <v>76.37293710365097</v>
       </c>
       <c r="G11" t="n">
-        <v>80.16132716492744</v>
+        <v>76.37293710365097</v>
       </c>
       <c r="H11" t="n">
-        <v>80.16132716492744</v>
+        <v>76.37293710365097</v>
       </c>
       <c r="I11" t="n">
-        <v>80.16132716492744</v>
+        <v>76.37293710365097</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>80.16132716492744</v>
+        <v>76.37293710365097</v>
       </c>
       <c r="T11" t="n">
-        <v>80.16132716492744</v>
+        <v>76.37293710365097</v>
       </c>
       <c r="U11" t="n">
-        <v>80.16132716492744</v>
+        <v>76.37293710365097</v>
       </c>
       <c r="V11" t="n">
-        <v>80.16132716492744</v>
+        <v>76.37293710365097</v>
       </c>
       <c r="W11" t="n">
-        <v>80.16132716492744</v>
+        <v>76.37293710365097</v>
       </c>
       <c r="X11" t="n">
-        <v>80.16132716492744</v>
+        <v>76.37293710365097</v>
       </c>
       <c r="Y11" t="n">
-        <v>80.16132716492744</v>
+        <v>76.37293710365097</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>80.16132716492744</v>
+        <v>76.37293710365097</v>
       </c>
       <c r="C13" t="n">
-        <v>80.16132716492744</v>
+        <v>76.37293710365097</v>
       </c>
       <c r="D13" t="n">
-        <v>80.16132716492744</v>
+        <v>76.37293710365097</v>
       </c>
       <c r="E13" t="n">
-        <v>80.16132716492744</v>
+        <v>76.37293710365097</v>
       </c>
       <c r="F13" t="n">
-        <v>80.16132716492744</v>
+        <v>76.37293710365097</v>
       </c>
       <c r="G13" t="n">
-        <v>80.16132716492744</v>
+        <v>76.37293710365097</v>
       </c>
       <c r="H13" t="n">
-        <v>80.16132716492744</v>
+        <v>76.37293710365097</v>
       </c>
       <c r="I13" t="n">
-        <v>80.16132716492744</v>
+        <v>76.37293710365097</v>
       </c>
       <c r="J13" t="n">
-        <v>80.16132716492744</v>
+        <v>76.37293710365097</v>
       </c>
       <c r="K13" t="n">
-        <v>80.16132716492744</v>
+        <v>76.37293710365097</v>
       </c>
       <c r="L13" t="n">
-        <v>80.16132716492744</v>
+        <v>76.37293710365097</v>
       </c>
       <c r="M13" t="n">
-        <v>80.16132716492744</v>
+        <v>76.37293710365097</v>
       </c>
       <c r="N13" t="n">
-        <v>80.16132716492744</v>
+        <v>76.37293710365097</v>
       </c>
       <c r="O13" t="n">
-        <v>80.16132716492744</v>
+        <v>76.37293710365097</v>
       </c>
       <c r="P13" t="n">
-        <v>80.16132716492744</v>
+        <v>76.37293710365097</v>
       </c>
       <c r="Q13" t="n">
-        <v>80.16132716492744</v>
+        <v>76.37293710365097</v>
       </c>
       <c r="R13" t="n">
-        <v>80.16132716492744</v>
+        <v>76.37293710365097</v>
       </c>
       <c r="S13" t="n">
-        <v>80.16132716492744</v>
+        <v>76.37293710365097</v>
       </c>
       <c r="T13" t="n">
-        <v>80.16132716492744</v>
+        <v>76.37293710365097</v>
       </c>
       <c r="U13" t="n">
-        <v>80.16132716492744</v>
+        <v>76.37293710365097</v>
       </c>
       <c r="V13" t="n">
-        <v>80.16132716492744</v>
+        <v>76.37293710365097</v>
       </c>
       <c r="W13" t="n">
-        <v>80.16132716492744</v>
+        <v>76.37293710365097</v>
       </c>
       <c r="X13" t="n">
-        <v>80.16132716492744</v>
+        <v>76.37293710365097</v>
       </c>
       <c r="Y13" t="n">
-        <v>80.16132716492744</v>
+        <v>76.37293710365097</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="18">
@@ -28719,40 +28719,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J19" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668673</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>5.636002634528666</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28764,31 +28764,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="R19" t="n">
         <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="20">
@@ -28980,7 +28980,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668787</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29004,7 +29004,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="R22" t="n">
-        <v>128.2979821082772</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29217,7 +29217,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668742</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29226,19 +29226,19 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>5.636002634528595</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>122.6619794737488</v>
@@ -29272,40 +29272,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L26" t="n">
-        <v>55.90318131510151</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431647</v>
+        <v>33.78382548972115</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -29317,31 +29317,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431647</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="29">
@@ -29536,25 +29536,25 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>33.78382548972115</v>
+      </c>
+      <c r="O29" t="n">
         <v>93.99127447431646</v>
       </c>
-      <c r="L29" t="n">
+      <c r="P29" t="n">
         <v>93.99127447431646</v>
       </c>
-      <c r="M29" t="n">
-        <v>55.90318131510128</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
         <v>93.99127447431646</v>
@@ -29940,13 +29940,13 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
+        <v>5.63600263452949</v>
+      </c>
+      <c r="P34" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -30165,13 +30165,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>35.71049010668811</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>5.636002634528353</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -30405,7 +30405,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="K40" t="n">
-        <v>28.01250026485259</v>
+        <v>28.01250026485309</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30645,19 +30645,19 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="M43" t="n">
-        <v>5.636002634528381</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="P43" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>116.5300220061955</v>
+        <v>112.7416319449189</v>
       </c>
       <c r="C44" t="n">
-        <v>116.5300220061955</v>
+        <v>112.7416319449189</v>
       </c>
       <c r="D44" t="n">
-        <v>116.5300220061955</v>
+        <v>112.7416319449189</v>
       </c>
       <c r="E44" t="n">
-        <v>116.5300220061955</v>
+        <v>112.7416319449189</v>
       </c>
       <c r="F44" t="n">
-        <v>116.5300220061955</v>
+        <v>112.7416319449189</v>
       </c>
       <c r="G44" t="n">
-        <v>116.5300220061955</v>
+        <v>112.7416319449189</v>
       </c>
       <c r="H44" t="n">
-        <v>116.5300220061955</v>
+        <v>112.7416319449189</v>
       </c>
       <c r="I44" t="n">
-        <v>116.5300220061955</v>
+        <v>112.7416319449189</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30742,28 +30742,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>37.6129845773319</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>116.5300220061955</v>
+        <v>112.7416319449189</v>
       </c>
       <c r="T44" t="n">
-        <v>116.5300220061955</v>
+        <v>112.7416319449189</v>
       </c>
       <c r="U44" t="n">
-        <v>116.5300220061955</v>
+        <v>112.7416319449189</v>
       </c>
       <c r="V44" t="n">
-        <v>116.5300220061955</v>
+        <v>112.7416319449189</v>
       </c>
       <c r="W44" t="n">
-        <v>116.5300220061955</v>
+        <v>112.7416319449189</v>
       </c>
       <c r="X44" t="n">
-        <v>116.5300220061955</v>
+        <v>112.7416319449189</v>
       </c>
       <c r="Y44" t="n">
-        <v>116.5300220061955</v>
+        <v>112.7416319449189</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>116.5300220061955</v>
+        <v>112.7416319449189</v>
       </c>
       <c r="C46" t="n">
-        <v>116.5300220061955</v>
+        <v>112.7416319449189</v>
       </c>
       <c r="D46" t="n">
-        <v>116.5300220061955</v>
+        <v>112.7416319449189</v>
       </c>
       <c r="E46" t="n">
-        <v>116.5300220061955</v>
+        <v>112.7416319449189</v>
       </c>
       <c r="F46" t="n">
-        <v>116.5300220061955</v>
+        <v>112.7416319449189</v>
       </c>
       <c r="G46" t="n">
-        <v>116.5300220061955</v>
+        <v>112.7416319449189</v>
       </c>
       <c r="H46" t="n">
-        <v>116.5300220061955</v>
+        <v>112.7416319449189</v>
       </c>
       <c r="I46" t="n">
-        <v>116.5300220061955</v>
+        <v>112.7416319449189</v>
       </c>
       <c r="J46" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>77.53376164623359</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>112.7416319449189</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>112.7416319449189</v>
       </c>
       <c r="N46" t="n">
-        <v>116.5300220061955</v>
+        <v>112.7416319449189</v>
       </c>
       <c r="O46" t="n">
-        <v>116.5300220061955</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>116.5300220061955</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>4.323635865602588</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>116.5300220061955</v>
+        <v>112.7416319449189</v>
       </c>
       <c r="S46" t="n">
-        <v>116.5300220061955</v>
+        <v>112.7416319449189</v>
       </c>
       <c r="T46" t="n">
-        <v>116.5300220061955</v>
+        <v>112.7416319449189</v>
       </c>
       <c r="U46" t="n">
-        <v>116.5300220061955</v>
+        <v>112.7416319449189</v>
       </c>
       <c r="V46" t="n">
-        <v>116.5300220061955</v>
+        <v>112.7416319449189</v>
       </c>
       <c r="W46" t="n">
-        <v>116.5300220061955</v>
+        <v>112.7416319449189</v>
       </c>
       <c r="X46" t="n">
-        <v>116.5300220061955</v>
+        <v>112.7416319449189</v>
       </c>
       <c r="Y46" t="n">
-        <v>116.5300220061955</v>
+        <v>112.7416319449189</v>
       </c>
     </row>
   </sheetData>
@@ -32233,28 +32233,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>-1.022191888111685e-13</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>-1.532000664367802e-13</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>-1.900582292913707e-13</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>-2.11476400386917e-13</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>-2.14898309636947e-13</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>-2.029223799915494e-13</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>-1.731895565476021e-13</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>-1.300581443111925e-13</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -32315,22 +32315,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>-1.040554090214597e-13</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>-1.39915338664404e-13</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>-1.6327460084118e-13</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>-1.675959936867082e-13</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>-1.533175916882723e-13</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>-1.230508840474865e-13</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -32470,28 +32470,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>-1.022191888111685e-13</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>-1.532000664367802e-13</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>-1.900582292913707e-13</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>-2.11476400386917e-13</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>-2.14898309636947e-13</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>-2.029223799915494e-13</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>-1.731895565476021e-13</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>-1.300581443111925e-13</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -32552,22 +32552,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>-1.040554090214597e-13</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>-1.39915338664404e-13</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>-1.6327460084118e-13</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>-1.675959936867082e-13</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>-1.533175916882723e-13</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>-1.230508840474865e-13</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -34702,19 +34702,19 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>367.1114806012371</v>
+        <v>497.4288151923673</v>
       </c>
       <c r="M2" t="n">
-        <v>515.5801415858488</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>497.4288151923673</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>167.6666106600022</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34784,10 +34784,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>515.5801415858488</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>190.5133656059317</v>
+        <v>397.4891728308329</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>497.4288151923673</v>
       </c>
       <c r="M5" t="n">
-        <v>515.5801415858488</v>
+        <v>178.5705135851943</v>
       </c>
       <c r="N5" t="n">
-        <v>515.5801415858488</v>
+        <v>497.4288151923673</v>
       </c>
       <c r="O5" t="n">
-        <v>3.306115173462225</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>515.5801415858488</v>
+        <v>397.4891728308329</v>
       </c>
       <c r="N6" t="n">
-        <v>515.5801415858488</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>515.5801415858488</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>85.03006645470592</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,7 +35170,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
         <v>362.6084404317796</v>
@@ -35185,7 +35185,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>396.1825288359632</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35249,19 +35249,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>503.4202726513632</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>66.19388044736954</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>146.1108817260872</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K11" t="n">
         <v>362.6084404317796</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>488.450591816478</v>
+        <v>86.27424572268784</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>362.1450102553808</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>50.08683969276837</v>
+        <v>46.2984496314919</v>
       </c>
       <c r="K13" t="n">
-        <v>162.8229848517374</v>
+        <v>159.0345947904609</v>
       </c>
       <c r="L13" t="n">
-        <v>245.9468219869474</v>
+        <v>242.158431925671</v>
       </c>
       <c r="M13" t="n">
-        <v>268.3346386177194</v>
+        <v>264.5462485564429</v>
       </c>
       <c r="N13" t="n">
-        <v>265.2013615398862</v>
+        <v>261.4129714786097</v>
       </c>
       <c r="O13" t="n">
-        <v>244.5095767020063</v>
+        <v>240.7211866407298</v>
       </c>
       <c r="P13" t="n">
-        <v>201.2483633028856</v>
+        <v>197.4599732416091</v>
       </c>
       <c r="Q13" t="n">
-        <v>83.61809117507993</v>
+        <v>79.82970111380345</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,7 +35650,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L14" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M14" t="n">
         <v>551.5160606510915</v>
@@ -35659,7 +35659,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
-        <v>444.4844453457845</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P14" t="n">
         <v>351.7045375065877</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
@@ -35732,19 +35732,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N15" t="n">
-        <v>260.2256450279866</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.91678700215736</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K16" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L16" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M16" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N16" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O16" t="n">
         <v>258.3395240113953</v>
@@ -35823,7 +35823,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44803848446891</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>146.1108817260889</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K17" t="n">
-        <v>362.6084404317795</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L17" t="n">
-        <v>498.3033249682108</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M17" t="n">
-        <v>551.5160606510913</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N17" t="n">
-        <v>533.1427107449109</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>444.4844453457861</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P17" t="n">
-        <v>351.7045375065875</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
-        <v>186.712687011059</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>322.9688344062892</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>488.4505918164779</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006879</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>135.5123342397981</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589872</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,16 +36039,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>5.636002634527659</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>171.4214974565487</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
@@ -36060,7 +36060,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>146.1108817260889</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K20" t="n">
-        <v>362.6084404317795</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L20" t="n">
-        <v>498.3033249682108</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M20" t="n">
-        <v>551.5160606510913</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N20" t="n">
-        <v>533.1427107449109</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
-        <v>444.4844453457861</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P20" t="n">
-        <v>351.7045375065875</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110616</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9688344062892</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>488.4505918164779</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>247.8874524576771</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
-        <v>521.737659182809</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589872</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>147.0691510340253</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>5.636002634528801</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
@@ -36300,7 +36300,7 @@
         <v>133.8167333257369</v>
       </c>
       <c r="R22" t="n">
-        <v>5.636002634528405</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36455,7 +36455,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>113.7820836676943</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>5.636002634528348</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
@@ -36522,7 +36522,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
@@ -36531,10 +36531,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>126.7230387724868</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>554.2065062833125</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>645.507335125408</v>
+        <v>585.2998861408126</v>
       </c>
       <c r="N26" t="n">
         <v>533.1427107449111</v>
@@ -36613,10 +36613,10 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698319</v>
+        <v>56.37828989698316</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>362.1450102553808</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>409.7185542589873</v>
+        <v>371.2794891934866</v>
       </c>
       <c r="Q27" t="n">
         <v>236.7324157120106</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.9167870021574</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446895</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,25 +36832,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>592.2945994425274</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M29" t="n">
-        <v>607.4192419661928</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N29" t="n">
-        <v>533.1427107449111</v>
+        <v>566.9265362346323</v>
       </c>
       <c r="O29" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
         <v>56.37828989698318</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36917,10 +36917,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>247.8874524576767</v>
       </c>
       <c r="N30" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -37148,22 +37148,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>409.7185542589873</v>
+        <v>172.5106644169666</v>
       </c>
       <c r="Q33" t="n">
         <v>236.7324157120106</v>
@@ -37236,13 +37236,13 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>190.6760370094878</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>294.7082188526632</v>
+        <v>169.9842521716083</v>
       </c>
       <c r="P34" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q34" t="n">
         <v>3.456764010152483</v>
@@ -37382,22 +37382,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>595.6737123351868</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>662.4019911217769</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
         <v>409.7185542589873</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>5.636002634529037</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>165.78549482202</v>
+        <v>171.4214974565483</v>
       </c>
       <c r="M37" t="n">
         <v>188.1733114527919</v>
@@ -37479,7 +37479,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>251.4470054535425</v>
+        <v>251.4470054535426</v>
       </c>
       <c r="Q37" t="n">
         <v>3.456764010152483</v>
@@ -37561,7 +37561,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q38" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110598</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>100.2854818434253</v>
       </c>
       <c r="K40" t="n">
-        <v>110.6741579516626</v>
+        <v>110.6741579516631</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37722,7 +37722,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>7.697989841835579</v>
+        <v>7.69798984183555</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37941,19 +37941,19 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>165.78549482202</v>
+        <v>171.421497456549</v>
       </c>
       <c r="M43" t="n">
-        <v>193.8093140873203</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P43" t="n">
-        <v>251.4470054535426</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
         <v>3.456764010152483</v>
@@ -38038,7 +38038,7 @@
         <v>186.7126870110591</v>
       </c>
       <c r="R44" t="n">
-        <v>-1.378022275413528e-12</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>362.1450102553808</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>82.66165768680997</v>
+        <v>160.1954193330436</v>
       </c>
       <c r="L46" t="n">
-        <v>165.78549482202</v>
+        <v>278.5271267669389</v>
       </c>
       <c r="M46" t="n">
-        <v>188.1733114527919</v>
+        <v>300.9149433977108</v>
       </c>
       <c r="N46" t="n">
-        <v>301.5700563811542</v>
+        <v>297.7816663198777</v>
       </c>
       <c r="O46" t="n">
-        <v>280.8782715432743</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6170581441536</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
-        <v>7.780399875755071</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
